--- a/data/trans_orig/P55S4-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P55S4-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D4F5302-447C-4229-9D5E-4109DB1CAF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B61FA969-3E0F-4FD0-9A21-574B34E29D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EC9A0863-0ACA-4FCB-BA3B-15079AAE2865}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0031449-4834-4AA3-BDB0-02C8B0932465}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3993EF31-5951-481A-892A-1C83E8478B16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE955FB-F852-4A71-8CB4-7BA11CEF46DA}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3206,7 +3206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE565B66-610F-4BC2-8980-61D740C23F95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD39B270-9963-4094-8AB9-A5ACEE264934}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P55S4-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P55S4-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B61FA969-3E0F-4FD0-9A21-574B34E29D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2A163C7-EE4E-4C82-BAF3-54087DC947D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0031449-4834-4AA3-BDB0-02C8B0932465}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92B6C6DF-F551-42EE-9230-F167C9B78B60}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE955FB-F852-4A71-8CB4-7BA11CEF46DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3695490B-4DF2-4C56-B34D-25B3B54A5874}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3206,7 +3206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD39B270-9963-4094-8AB9-A5ACEE264934}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6695BB52-7E1F-476B-AC4E-59BB81349347}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
